--- a/data/trans_camb/P18_6_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P18_6_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 5,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 2,56</t>
+          <t>0,0; 15,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 9,96</t>
+          <t>0,0; 13,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 8,63</t>
+          <t>-13,77; 14,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 7,97</t>
+          <t>-15,97; 11,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 6,06</t>
+          <t>-14,22; 15,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 2,68</t>
+          <t>-13,68; 17,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 2,57</t>
+          <t>-8,18; 7,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-9,38; 5,63</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,13; 9,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,6; 10,43</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-55,93%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,78%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,24%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,79%</t>
+          <t>-14,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,61%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-35,65%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-35,52%</t>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-21,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,26%</t>
         </is>
       </c>
     </row>
@@ -806,32 +875,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,31; 137,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,99; 123,27</t>
+          <t>-72,69; 225,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,64; 115,48</t>
+          <t>-77,63; 175,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,34; 124,48</t>
+          <t>-72,87; 243,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,44; 58,76</t>
+          <t>-75,98; 323,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-74,44; 57,83</t>
+          <t>-70,91; 289,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-77,48; 210,87</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-64,63; 336,39</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-76,07; 320,99</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-8,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,22</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-11,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,69</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,07</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-6,39</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 23,44</t>
+          <t>-22,41; 43,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 22,64</t>
+          <t>-22,98; 42,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 4,37</t>
+          <t>-45,05; 6,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,8; -4,11</t>
+          <t>-42,98; 10,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 8,51</t>
+          <t>-23,44; -0,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 3,61</t>
+          <t>-15,04; 11,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 5,76</t>
+          <t>-15,39; 9,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 10,41</t>
+          <t>-5,88; 26,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 0,24</t>
+          <t>-18,18; 18,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-11,53; 23,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-22,48; 3,73</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-16,57; 12,13</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>62,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-51,92%</t>
+          <t>-59,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-68,27%</t>
+          <t>-40,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>-72,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,38%</t>
+          <t>-10,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-38,88%</t>
+          <t>-22,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>63,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-44,5%</t>
+          <t>-18,47%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-42,44%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1136,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-92,66; 463,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-92,57; 460,25</t>
+          <t>-96,66; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,32 +1151,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-90,52; -18,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,23; 67,95</t>
+          <t>-100,0; 25,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,65; 37,64</t>
+          <t>-69,45; 136,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-80,48; 67,32</t>
+          <t>-70,67; 118,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,9; 95,19</t>
+          <t>-30,14; 288,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,66; 5,61</t>
+          <t>-88,08; 275,99</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-64,29; 256,91</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-84,66; 49,36</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-67,27; 151,96</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-10,55</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-6,41</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,94</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-4,17</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 2,72</t>
+          <t>-10,67; 10,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 1,01</t>
+          <t>-14,72; 5,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 5,58</t>
+          <t>-11,49; 10,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 1,21</t>
+          <t>-6,85; 17,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 5,28</t>
+          <t>-19,57; -1,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 5,56</t>
+          <t>-15,52; 4,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,82; -0,92</t>
+          <t>-16,05; 2,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 1,78</t>
+          <t>-13,29; 7,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 3,63</t>
+          <t>-13,52; 0,76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,51; 2,0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-12,32; 2,96</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 7,14</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-42,15%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-51,61%</t>
+          <t>-44,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-25,81%</t>
+          <t>-8,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-45,46%</t>
+          <t>39,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-13,04%</t>
+          <t>-57,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,13%</t>
+          <t>-28,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-44,49%</t>
+          <t>-34,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-27,9%</t>
+          <t>-13,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-19,54%</t>
+          <t>-42,26%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-32,57%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-27,53%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,42; 54,36</t>
+          <t>-71,27; 277,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-84,33; 33,59</t>
+          <t>-100,0; 175,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,61; 89,13</t>
+          <t>-76,76; 250,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-73,6; 13,33</t>
+          <t>-54,74; 395,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 49,21</t>
+          <t>-81,32; -10,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,72; 51,15</t>
+          <t>-66,2; 40,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,29; -7,92</t>
+          <t>-66,67; 25,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,21; 19,39</t>
+          <t>-54,8; 58,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 37,02</t>
+          <t>-71,72; 8,6</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-68,5; 22,66</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-63,8; 27,51</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-43,16; 64,03</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-10,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-7,0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 2,17</t>
+          <t>-9,19; 2,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 5,04</t>
+          <t>-4,81; 11,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 11,26</t>
+          <t>-4,86; 11,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 0,69</t>
+          <t>-3,13; 12,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 6,73</t>
+          <t>-20,34; -0,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 4,92</t>
+          <t>-12,86; 8,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,94; -0,26</t>
+          <t>-17,39; 2,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,97</t>
+          <t>-11,12; 11,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 4,61</t>
+          <t>-13,85; -1,3</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,38; 6,43</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-9,14; 4,41</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 8,87</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-40,61%</t>
+          <t>-51,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>56,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>59,88%</t>
+          <t>53,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-37,98%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,66%</t>
+          <t>-49,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-20,58%</t>
+          <t>-13,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-38,32%</t>
+          <t>-31,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-9,52%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-3,42%</t>
+          <t>-49,77%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-1,7%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-17,48%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-86,26; 88,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,34; 147,33</t>
+          <t>-66,78; 661,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 311,24</t>
+          <t>-66,24; 750,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-62,36; 5,42</t>
+          <t>-55,71; 773,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,78; 49,2</t>
+          <t>-75,14; -0,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,78; 35,52</t>
+          <t>-49,01; 53,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-62,5; 0,58</t>
+          <t>-63,68; 20,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-42,9; 38,67</t>
+          <t>-41,19; 68,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,89; 45,7</t>
+          <t>-75,63; -4,67</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-42,65; 62,68</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-50,82; 44,95</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-35,63; 86,4</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-7,8</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 6,13</t>
+          <t>-6,18; 9,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 8,92</t>
+          <t>-4,69; 12,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 10,22</t>
+          <t>-4,58; 12,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,99; -0,21</t>
+          <t>-4,54; 11,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 10,18</t>
+          <t>-18,38; 5,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 8,91</t>
+          <t>-9,96; 18,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 1,09</t>
+          <t>-10,25; 17,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 7,61</t>
+          <t>-8,75; 21,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 7,95</t>
+          <t>-9,13; 5,02</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 11,1</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 11,22</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 12,64</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>56,03%</t>
+          <t>54,7%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>74,04%</t>
+          <t>60,24%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-57,64%</t>
+          <t>42,18%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>-46,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-37,15%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>-20,64%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>38,23%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>38,21%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>49,54%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,43; 278,77</t>
+          <t>-76,14; 509,07</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 374,43</t>
+          <t>-65,62; 632,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 472,2</t>
+          <t>-67,39; 743,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-84,86; 6,16</t>
+          <t>-64,28; 680,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 115,66</t>
+          <t>-87,64; 98,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,7; 110,27</t>
+          <t>-54,23; 279,17</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-68,06; 19,22</t>
+          <t>-56,85; 222,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 111,15</t>
+          <t>-43,3; 321,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 137,51</t>
+          <t>-68,51; 97,05</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-39,12; 215,37</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-36,44; 187,6</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-27,43; 230,61</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,52</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-4,43</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-4,82</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-2,25</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2,93</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,56; -1,18</t>
+          <t>-14,23; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -1,18</t>
+          <t>-14,23; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 4,21</t>
+          <t>-5,72; 14,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 6,91</t>
+          <t>-0,22; 27,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 7,75</t>
+          <t>-20,62; 6,85</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 12,25</t>
+          <t>-20,83; 7,09</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 1,51</t>
+          <t>-20,78; 6,96</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 3,0</t>
+          <t>-19,86; 12,78</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 7,89</t>
+          <t>-14,68; 3,08</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-14,49; 2,51</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-12,0; 6,31</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 13,67</t>
         </is>
       </c>
     </row>
@@ -1828,37 +2182,52 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-31,59%</t>
+          <t>105,35%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-40,01%</t>
+          <t>379,3%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-22,01%</t>
+          <t>-40,71%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-7,4%</t>
+          <t>-44,34%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-50,13%</t>
+          <t>-45,28%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-31,33%</t>
+          <t>-22,55%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-7,32%</t>
+          <t>-47,89%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-52,04%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-24,37%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>31,66%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +2255,47 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-81,0; 85,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-66,75; 77,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-60,01; 105,05</t>
+          <t>-87,62; 206,61</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-82,71; 42,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-67,43; 52,06</t>
+          <t>-84,7; 304,07</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-58,81; 111,71</t>
+          <t>-91,48; 112,6</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-92,65; 82,37</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-83,21; 188,15</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-61,2; 304,3</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-4,21</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 2,96</t>
+          <t>-5,76; 10,03</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 3,16</t>
+          <t>-5,1; 10,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 2,21</t>
+          <t>-7,77; 4,08</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -3,22</t>
+          <t>-5,23; 7,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 1,97</t>
+          <t>-13,26; -3,67</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 1,25</t>
+          <t>-7,95; 2,34</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -1,71</t>
+          <t>-8,81; 1,41</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 1,16</t>
+          <t>-4,76; 6,38</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 0,38</t>
+          <t>-8,14; 0,08</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 3,77</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 0,88</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 5,59</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-23,27%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-21,25%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-13,76%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-44,15%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>-48,32%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-17,7%</t>
+          <t>-16,57%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-38,32%</t>
+          <t>-23,0%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-15,04%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-17,83%</t>
+          <t>-34,07%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-6,54%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-18,6%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-61,54; 61,21</t>
+          <t>-62,68; 226,18</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 64,46</t>
+          <t>-56,39; 226,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-52,35; 43,4</t>
+          <t>-63,11; 93,3</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-58,67; -21,71</t>
+          <t>-47,47; 163,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 14,35</t>
+          <t>-65,71; -23,52</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-37,37; 8,39</t>
+          <t>-41,38; 15,74</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-53,26; -14,44</t>
+          <t>-44,93; 10,32</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 12,04</t>
+          <t>-24,29; 46,02</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 3,63</t>
+          <t>-55,8; 3,35</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-33,51; 36,52</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-42,54; 8,95</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-20,09; 51,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
